--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C253580C-9DDE-4117-BCF5-77CC1125400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9EEEB-DC68-4BD8-8A9A-0E76F55C9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="210">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1906,6 +1906,17 @@
   </si>
   <si>
     <t>NUMERO DE CONTROLE 03</t>
+  </si>
+  <si>
+    <t>Eletrodutos de PVC rígido roscável, anti-chama, cor preta fabr. de acordo com a EB-744 da classe B,
+NBR-6150 da ABNT, c/ extremidades, luva, curva, bucha e arruela, diâm. 3/4" (25mm), incl conexões, marc
+TIGRE, DAISA, KANAFLEX</t>
+  </si>
+  <si>
+    <t>Abraçadeira para eletroduto de 3/4", inclusive bucha e parafuso</t>
+  </si>
+  <si>
+    <t>SINAPI</t>
   </si>
 </sst>
 </file>
@@ -2560,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D1:F1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3204,104 +3215,92 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="25.5">
+    <row r="33" spans="1:6" ht="63.75">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3">
+        <v>20301</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20319</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="25.5">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3">
         <v>160869</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="25.5">
-      <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="25.5">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3">
         <v>160870</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3">
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3">
         <v>160847</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3">
-        <v>160848</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="8">
-        <v>160807</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3309,119 +3308,119 @@
         <v>18</v>
       </c>
       <c r="B38" s="3">
+        <v>160848</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="8">
+        <v>160807</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3">
         <v>160851</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B41" s="3">
         <v>160839</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E41" s="12">
         <v>5.3</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F41" s="12">
         <v>7.06</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="8">
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="8">
         <v>160872</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="8">
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="8">
         <v>160873</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="25.5">
-      <c r="A42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3">
-        <v>160809</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="25.5">
-      <c r="A43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="3">
-        <v>160810</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.5">
@@ -3429,19 +3428,19 @@
         <v>18</v>
       </c>
       <c r="B44" s="3">
-        <v>160811</v>
+        <v>160809</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="25.5">
@@ -3449,19 +3448,19 @@
         <v>18</v>
       </c>
       <c r="B45" s="3">
-        <v>160812</v>
+        <v>160810</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="25.5">
@@ -3469,19 +3468,19 @@
         <v>18</v>
       </c>
       <c r="B46" s="3">
-        <v>160813</v>
+        <v>160811</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="25.5">
@@ -3489,19 +3488,19 @@
         <v>18</v>
       </c>
       <c r="B47" s="3">
-        <v>160814</v>
+        <v>160812</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="25.5">
@@ -3509,19 +3508,19 @@
         <v>18</v>
       </c>
       <c r="B48" s="3">
-        <v>160815</v>
+        <v>160813</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="25.5">
@@ -3529,19 +3528,19 @@
         <v>18</v>
       </c>
       <c r="B49" s="3">
-        <v>160816</v>
+        <v>160814</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="25.5">
@@ -3549,19 +3548,19 @@
         <v>18</v>
       </c>
       <c r="B50" s="3">
-        <v>160825</v>
+        <v>160815</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="25.5">
@@ -3569,19 +3568,19 @@
         <v>18</v>
       </c>
       <c r="B51" s="3">
-        <v>160826</v>
+        <v>160816</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="25.5">
@@ -3589,19 +3588,19 @@
         <v>18</v>
       </c>
       <c r="B52" s="3">
-        <v>160827</v>
+        <v>160825</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="25.5">
@@ -3609,19 +3608,19 @@
         <v>18</v>
       </c>
       <c r="B53" s="3">
-        <v>160828</v>
+        <v>160826</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="25.5">
@@ -3629,19 +3628,19 @@
         <v>18</v>
       </c>
       <c r="B54" s="3">
-        <v>160834</v>
+        <v>160827</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="25.5">
@@ -3649,19 +3648,19 @@
         <v>18</v>
       </c>
       <c r="B55" s="3">
-        <v>160833</v>
+        <v>160828</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="25.5">
@@ -3669,19 +3668,19 @@
         <v>18</v>
       </c>
       <c r="B56" s="3">
-        <v>160831</v>
+        <v>160834</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="25.5">
@@ -3689,219 +3688,219 @@
         <v>18</v>
       </c>
       <c r="B57" s="3">
+        <v>160833</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="25.5">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="3">
+        <v>160831</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="25.5">
+      <c r="A59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="3">
         <v>160832</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="D59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3">
-        <v>160874</v>
-      </c>
-      <c r="C58" s="4" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="3">
+        <v>98302</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="D60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="3">
-        <v>160844</v>
-      </c>
-      <c r="C59" s="4" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="3">
+        <v>98304</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="D61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="38.25">
-      <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="3">
+    <row r="62" spans="1:6" ht="38.25">
+      <c r="A62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3">
         <v>160866</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="D62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="38.25">
-      <c r="A61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="3">
+    <row r="63" spans="1:6" ht="38.25">
+      <c r="A63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3">
         <v>160867</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="D63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="3">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3">
         <v>160829</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="D64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="3">
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="3">
         <v>160830</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="25.5">
-      <c r="A64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="3">
-        <v>160822</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="25.5">
-      <c r="A65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="3">
-        <v>160823</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="25.5">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3">
-        <v>97603</v>
+        <v>160822</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="25.5">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B67" s="3">
-        <v>97602</v>
+        <v>160823</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="25.5">
@@ -3909,10 +3908,10 @@
         <v>113</v>
       </c>
       <c r="B68" s="3">
-        <v>97604</v>
+        <v>97603</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>111</v>
@@ -3924,24 +3923,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="25.5">
       <c r="A69" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B69" s="3">
-        <v>105553</v>
+        <v>97602</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="25.5">
@@ -3949,99 +3948,99 @@
         <v>113</v>
       </c>
       <c r="B70" s="3">
-        <v>105552</v>
+        <v>97604</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="25.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B71" s="3">
-        <v>105550</v>
+        <v>105553</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="25.5">
       <c r="A72" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B72" s="3">
-        <v>105551</v>
+        <v>105552</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="25.5">
       <c r="A73" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B73" s="3">
+        <v>105550</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>206</v>
+        <v>128</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B74" s="3">
+        <v>105551</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>206</v>
+        <v>125</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4052,7 +4051,7 @@
         <v>191</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>204</v>
@@ -4072,7 +4071,7 @@
         <v>191</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>204</v>
@@ -4092,7 +4091,7 @@
         <v>191</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>204</v>
@@ -4112,7 +4111,7 @@
         <v>191</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>204</v>
@@ -4132,7 +4131,7 @@
         <v>191</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>204</v>
@@ -4152,7 +4151,7 @@
         <v>191</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>204</v>
@@ -4172,7 +4171,7 @@
         <v>191</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>204</v>
@@ -4192,7 +4191,7 @@
         <v>191</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>204</v>
@@ -4212,7 +4211,7 @@
         <v>191</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>204</v>
@@ -4225,14 +4224,54 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4244,7 +4283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641601A-16AA-47E8-B45E-7D67F7F6F2F4}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -6921,23 +6960,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7164,32 +7186,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7206,4 +7220,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9EEEB-DC68-4BD8-8A9A-0E76F55C9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F972CA-59F0-409D-8F8F-6FD102BA4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="211">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1917,6 +1917,9 @@
   </si>
   <si>
     <t>SINAPI</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDOR ÓPTICO COM INSTALAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4264,14 +4267,34 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F972CA-59F0-409D-8F8F-6FD102BA4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C320B2F4-16CB-49B1-9EDE-65AFDD48274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="212">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1920,6 +1920,9 @@
   </si>
   <si>
     <t>DISTRIBUIDOR ÓPTICO COM INSTALAÇÃO</t>
+  </si>
+  <si>
+    <t>FUSÃO DE FIBRA ÓPTICA</t>
   </si>
 </sst>
 </file>
@@ -2574,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4287,14 +4290,34 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6983,6 +7006,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7209,24 +7249,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7243,29 +7291,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C320B2F4-16CB-49B1-9EDE-65AFDD48274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A47BBF-E5E8-4AE4-8764-F415076714F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="215">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1923,6 +1924,15 @@
   </si>
   <si>
     <t>FUSÃO DE FIBRA ÓPTICA</t>
+  </si>
+  <si>
+    <t>TAMPA CEGA 4X2</t>
+  </si>
+  <si>
+    <t>CABO FIBRA ÓPTICA</t>
+  </si>
+  <si>
+    <t>CORDÃO ÓPTICO MULTIMODO LC</t>
   </si>
 </sst>
 </file>
@@ -2577,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4310,14 +4320,74 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7006,23 +7076,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7249,32 +7302,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7291,4 +7336,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\OneDrive - Secretaria de Estado da Educação\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A47BBF-E5E8-4AE4-8764-F415076714F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D96DC-BB4D-40BD-A46C-82CBE09761C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="218">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1932,7 +1931,16 @@
     <t>CABO FIBRA ÓPTICA</t>
   </si>
   <si>
-    <t>CORDÃO ÓPTICO MULTIMODO LC</t>
+    <t>CORDÃO ÓPTICO</t>
+  </si>
+  <si>
+    <t>CAIXA BOX PARA CÂMERA</t>
+  </si>
+  <si>
+    <t>PROJETO DE ALARME E CFTV (UTILIZAR TABELA REFERENCIAL DE PREÇOS DE PROJETOS DO DER) - https://der.es.gov.br/Media/der/Documentos/Tabela%20Referencial%20de%20Pre%C3%A7o/Referencial%20de%20Edifica%C3%A7%C3%B5es/PROJETOS/TABELA%20REFERENCIAL%20DE%20PRE%C3%87OS%20DE%20PROJETOS%202025.pdf</t>
+  </si>
+  <si>
+    <t>PROJETO SIST. CABEAMENTO ESTRUTURADO (VOZ, DADOS E SONORIZAÇÃO (UTILIZAR TABELA REFERENCIAL DE PREÇOS DE PROJETOS DO DER) - https://der.es.gov.br/Media/der/Documentos/Tabela%20Referencial%20de%20Pre%C3%A7o/Referencial%20de%20Edifica%C3%A7%C3%B5es/PROJETOS/TABELA%20REFERENCIAL%20DE%20PRE%C3%87OS%20DE%20PROJETOS%202025.pdf</t>
   </si>
 </sst>
 </file>
@@ -2587,17 +2595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:F90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="128.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="39.140625" customWidth="1"/>
@@ -2663,7 +2671,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.25">
+    <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51">
+    <row r="5" spans="1:6" ht="38.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51">
+    <row r="6" spans="1:6" ht="38.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2991,7 +2999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38.25">
+    <row r="21" spans="1:6" ht="25.5">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="51">
+    <row r="24" spans="1:6" ht="38.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3459,7 +3467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="25.5">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3479,7 +3487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="25.5">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="25.5">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="25.5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="25.5">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="25.5">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="25.5">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -4019,7 +4027,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="25.5">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>113</v>
       </c>
@@ -4380,14 +4388,62 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7076,6 +7132,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7302,7 +7366,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7311,15 +7375,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7338,27 +7411,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\OneDrive - Secretaria de Estado da Educação\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D96DC-BB4D-40BD-A46C-82CBE09761C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16B797-1B78-41CE-AFC5-C11987EF1AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="218">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4409,10 +4409,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
       </c>
       <c r="C92" t="s">
         <v>216</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2</v>
       </c>
       <c r="C93" t="s">
         <v>217</v>

--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\OneDrive - Secretaria de Estado da Educação\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16B797-1B78-41CE-AFC5-C11987EF1AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A3070-4A74-4F4B-A3FD-9006A5A620D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="219">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1941,6 +1941,9 @@
   </si>
   <si>
     <t>PROJETO SIST. CABEAMENTO ESTRUTURADO (VOZ, DADOS E SONORIZAÇÃO (UTILIZAR TABELA REFERENCIAL DE PREÇOS DE PROJETOS DO DER) - https://der.es.gov.br/Media/der/Documentos/Tabela%20Referencial%20de%20Pre%C3%A7o/Referencial%20de%20Edifica%C3%A7%C3%B5es/PROJETOS/TABELA%20REFERENCIAL%20DE%20PRE%C3%87OS%20DE%20PROJETOS%202025.pdf</t>
+  </si>
+  <si>
+    <t>00001</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2095,6 +2098,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2597,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4411,8 +4417,8 @@
       <c r="A92" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="2">
-        <v>1</v>
+      <c r="B92" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="C92" t="s">
         <v>216</v>
@@ -4425,8 +4431,8 @@
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="2">
-        <v>2</v>
+      <c r="B93" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="C93" t="s">
         <v>217</v>

--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\OneDrive - Secretaria de Estado da Educação\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A3070-4A74-4F4B-A3FD-9006A5A620D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A1D3D1-6AE6-4077-BEED-D99DBC8E61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="220">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1944,6 +1944,9 @@
   </si>
   <si>
     <t>00001</t>
+  </si>
+  <si>
+    <t>00002</t>
   </si>
 </sst>
 </file>
@@ -2603,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4432,7 +4435,7 @@
         <v>184</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
         <v>217</v>

--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\OneDrive - Secretaria de Estado da Educação\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A1D3D1-6AE6-4077-BEED-D99DBC8E61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF456C8-2F9B-4A6D-87EB-D5EA0A9BA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="222">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1937,16 +1937,22 @@
     <t>CAIXA BOX PARA CÂMERA</t>
   </si>
   <si>
-    <t>PROJETO DE ALARME E CFTV (UTILIZAR TABELA REFERENCIAL DE PREÇOS DE PROJETOS DO DER) - https://der.es.gov.br/Media/der/Documentos/Tabela%20Referencial%20de%20Pre%C3%A7o/Referencial%20de%20Edifica%C3%A7%C3%B5es/PROJETOS/TABELA%20REFERENCIAL%20DE%20PRE%C3%87OS%20DE%20PROJETOS%202025.pdf</t>
-  </si>
-  <si>
-    <t>PROJETO SIST. CABEAMENTO ESTRUTURADO (VOZ, DADOS E SONORIZAÇÃO (UTILIZAR TABELA REFERENCIAL DE PREÇOS DE PROJETOS DO DER) - https://der.es.gov.br/Media/der/Documentos/Tabela%20Referencial%20de%20Pre%C3%A7o/Referencial%20de%20Edifica%C3%A7%C3%B5es/PROJETOS/TABELA%20REFERENCIAL%20DE%20PRE%C3%87OS%20DE%20PROJETOS%202025.pdf</t>
-  </si>
-  <si>
     <t>00001</t>
   </si>
   <si>
     <t>00002</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>PROJETO DE CAMERA</t>
+  </si>
+  <si>
+    <t>PROJETO DE CABEAMENTO ESTRUTURADO</t>
+  </si>
+  <si>
+    <t>POWER BALUN 16 CANAIS</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2054,12 +2060,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2103,6 +2120,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2604,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2660,7 +2680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" s="2" t="s">
         <v>113</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25">
+    <row r="6" spans="1:6" ht="25.5">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2928,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="25.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="25.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +3008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="25.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38.25">
+    <row r="22" spans="1:6" ht="25.5">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38.25">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="38.25">
+    <row r="24" spans="1:6" ht="25.5">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -3108,7 +3128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="25.5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -3148,7 +3168,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -3188,7 +3208,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="25.5">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="12.75">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="25.5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="25.5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="63.75">
+    <row r="33" spans="1:6" ht="38.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -3276,7 +3296,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="25.5">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="12.75">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -3296,7 +3316,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="25.5">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="25.5">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="25.5">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -3696,7 +3716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="25.5">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -3716,7 +3736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="25.5">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="25.5">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
@@ -3756,7 +3776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="25.5">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
@@ -3816,7 +3836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="38.25">
+    <row r="62" spans="1:6" ht="25.5">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3836,7 +3856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="38.25">
+    <row r="63" spans="1:6" ht="25.5">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="25.5">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="25.5">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -3936,7 +3956,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="25.5">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>113</v>
       </c>
@@ -3956,7 +3976,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="25.5">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>113</v>
       </c>
@@ -3976,7 +3996,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="25.5">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>113</v>
       </c>
@@ -4016,7 +4036,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="25.5">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>113</v>
       </c>
@@ -4418,13 +4438,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" t="s">
         <v>216</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4432,27 +4452,41 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C93" t="s">
         <v>217</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7141,11 +7175,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7376,27 +7411,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7421,9 +7446,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF456C8-2F9B-4A6D-87EB-D5EA0A9BA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72877E-9B02-4067-9FC9-7228E086CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="222">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1931,12 +1931,6 @@
     <t>CABO FIBRA ÓPTICA</t>
   </si>
   <si>
-    <t>CORDÃO ÓPTICO</t>
-  </si>
-  <si>
-    <t>CAIXA BOX PARA CÂMERA</t>
-  </si>
-  <si>
     <t>00001</t>
   </si>
   <si>
@@ -1953,6 +1947,12 @@
   </si>
   <si>
     <t>POWER BALUN 16 CANAIS</t>
+  </si>
+  <si>
+    <t>CORDÃO ÓPTICO MULTIMOD</t>
+  </si>
+  <si>
+    <t>CAIXA DE PASSAGEM PARA CÂMERA</t>
   </si>
 </sst>
 </file>
@@ -2624,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4304,7 +4304,7 @@
         <v>191</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>204</v>
@@ -4324,7 +4324,7 @@
         <v>191</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>204</v>
@@ -4344,7 +4344,7 @@
         <v>191</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>204</v>
@@ -4364,7 +4364,7 @@
         <v>191</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>204</v>
@@ -4384,7 +4384,7 @@
         <v>191</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>204</v>
@@ -4404,7 +4404,7 @@
         <v>191</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>204</v>
@@ -4418,33 +4418,27 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>206</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4452,41 +4446,27 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="16" t="s">
+      <c r="A94" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\TABELA GTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72877E-9B02-4067-9FC9-7228E086CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC1C091-D006-4D4C-90EE-63BEA6C2038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="222">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -2076,7 +2076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2121,8 +2121,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2624,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3287,273 +3290,185 @@
         <v>4</v>
       </c>
       <c r="B34" s="3">
-        <v>20319</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>208</v>
-      </c>
+        <v>20302</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="12.75">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>160869</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="12.75">
+        <v>20303</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>160870</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>20304</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B37" s="3">
-        <v>160847</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>20305</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3">
-        <v>160848</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B38" s="19">
+        <v>180201</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="8">
-        <v>160807</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="19">
+        <v>180202</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3">
-        <v>160851</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>76</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B40" s="19">
+        <v>151401</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="3">
-        <v>160839</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="F41" s="12">
-        <v>7.06</v>
-      </c>
+      <c r="B41" s="19">
+        <v>151402</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="8">
-        <v>160872</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="19">
+        <v>151403</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="8">
-        <v>160873</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="19">
+        <v>151404</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="3">
-        <v>160809</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B44" s="19">
+        <v>151405</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3">
-        <v>160810</v>
+        <v>20319</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="12.75">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="3">
-        <v>160811</v>
+        <v>160869</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="12.75">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="3">
-        <v>160812</v>
+        <v>160870</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3561,19 +3476,19 @@
         <v>18</v>
       </c>
       <c r="B48" s="3">
-        <v>160813</v>
+        <v>160847</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3581,39 +3496,39 @@
         <v>18</v>
       </c>
       <c r="B49" s="3">
-        <v>160814</v>
+        <v>160848</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="3">
-        <v>160815</v>
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="8">
+        <v>160807</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3621,79 +3536,79 @@
         <v>18</v>
       </c>
       <c r="B51" s="3">
-        <v>160816</v>
+        <v>160851</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="B52" s="3">
-        <v>160825</v>
+        <v>160839</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>49</v>
+        <v>189</v>
+      </c>
+      <c r="E52" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="F52" s="12">
+        <v>7.06</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="3">
-        <v>160826</v>
+      <c r="A53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="8">
+        <v>160872</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="3">
-        <v>160827</v>
+      <c r="A54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8">
+        <v>160873</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3701,19 +3616,19 @@
         <v>18</v>
       </c>
       <c r="B55" s="3">
-        <v>160828</v>
+        <v>160809</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3721,19 +3636,19 @@
         <v>18</v>
       </c>
       <c r="B56" s="3">
-        <v>160834</v>
+        <v>160810</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3741,19 +3656,19 @@
         <v>18</v>
       </c>
       <c r="B57" s="3">
-        <v>160833</v>
+        <v>160811</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3761,19 +3676,19 @@
         <v>18</v>
       </c>
       <c r="B58" s="3">
-        <v>160831</v>
+        <v>160812</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3781,99 +3696,99 @@
         <v>18</v>
       </c>
       <c r="B59" s="3">
-        <v>160832</v>
+        <v>160813</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="11" t="s">
-        <v>209</v>
+      <c r="A60" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B60" s="3">
-        <v>98302</v>
+        <v>160814</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="11" t="s">
-        <v>209</v>
+      <c r="A61" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B61" s="3">
-        <v>98304</v>
+        <v>160815</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="25.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="3">
-        <v>160866</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>39</v>
+        <v>160816</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="25.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="3">
-        <v>160867</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>36</v>
+        <v>160825</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3881,19 +3796,19 @@
         <v>18</v>
       </c>
       <c r="B64" s="3">
-        <v>160829</v>
+        <v>160826</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3901,19 +3816,19 @@
         <v>18</v>
       </c>
       <c r="B65" s="3">
-        <v>160830</v>
+        <v>160827</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3921,19 +3836,19 @@
         <v>18</v>
       </c>
       <c r="B66" s="3">
-        <v>160822</v>
+        <v>160828</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3941,379 +3856,379 @@
         <v>18</v>
       </c>
       <c r="B67" s="3">
-        <v>160823</v>
+        <v>160834</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B68" s="3">
-        <v>97603</v>
+        <v>160833</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B69" s="3">
-        <v>97602</v>
+        <v>160831</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B70" s="3">
-        <v>97604</v>
+        <v>160832</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="2" t="s">
-        <v>113</v>
+      <c r="A71" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="B71" s="3">
-        <v>105553</v>
+        <v>98302</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="2" t="s">
-        <v>113</v>
+      <c r="A72" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="B72" s="3">
-        <v>105552</v>
+        <v>98304</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="25.5">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B73" s="3">
-        <v>105550</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>128</v>
+        <v>160866</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="25.5">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B74" s="3">
-        <v>105551</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>125</v>
+        <v>160867</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B75" s="3">
+        <v>160829</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>206</v>
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B76" s="3">
+        <v>160830</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>206</v>
+        <v>30</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B77" s="3">
+        <v>160822</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>206</v>
+        <v>143</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B78" s="3">
+        <v>160823</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>206</v>
+        <v>140</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B79" s="3">
+        <v>97603</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>206</v>
+        <v>137</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B80" s="3">
+        <v>97602</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>206</v>
+        <v>136</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B81" s="3">
+        <v>97604</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>206</v>
+        <v>135</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B82" s="3">
+        <v>105553</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>206</v>
+        <v>132</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B83" s="3">
+        <v>105552</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>206</v>
+        <v>131</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B84" s="3">
+        <v>105550</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>206</v>
+        <v>128</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
+      </c>
+      <c r="B85" s="3">
+        <v>105551</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>206</v>
+        <v>125</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4324,7 +4239,7 @@
         <v>191</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>204</v>
@@ -4344,7 +4259,7 @@
         <v>191</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>204</v>
@@ -4364,7 +4279,7 @@
         <v>191</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>204</v>
@@ -4384,7 +4299,7 @@
         <v>191</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>204</v>
@@ -4404,7 +4319,7 @@
         <v>191</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>204</v>
@@ -4418,55 +4333,275 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="16" t="s">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7155,12 +7290,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7391,17 +7525,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7426,18 +7570,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\TABELA GTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC1C091-D006-4D4C-90EE-63BEA6C2038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A443DD-328F-4BB9-861D-A19F87BB12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="223">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1953,6 +1953,9 @@
   </si>
   <si>
     <t>CAIXA DE PASSAGEM PARA CÂMERA</t>
+  </si>
+  <si>
+    <t>Eletroduto de PVC rígido roscável, diâmetro 1", inclusive conexões - fonte : (LABOR - 2024)</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2633,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3292,7 +3295,9 @@
       <c r="B34" s="3">
         <v>20302</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -7290,14 +7295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7524,6 +7521,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7534,23 +7539,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7569,6 +7557,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
   <ds:schemaRefs>

--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\TABELA GTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A443DD-328F-4BB9-861D-A19F87BB12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8601B0-C986-44B6-992B-8B52B672978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
   <sheets>
     <sheet name="gti" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gti!$A$1:$F$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="272">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1908,14 +1911,6 @@
     <t>NUMERO DE CONTROLE 03</t>
   </si>
   <si>
-    <t>Eletrodutos de PVC rígido roscável, anti-chama, cor preta fabr. de acordo com a EB-744 da classe B,
-NBR-6150 da ABNT, c/ extremidades, luva, curva, bucha e arruela, diâm. 3/4" (25mm), incl conexões, marc
-TIGRE, DAISA, KANAFLEX</t>
-  </si>
-  <si>
-    <t>Abraçadeira para eletroduto de 3/4", inclusive bucha e parafuso</t>
-  </si>
-  <si>
     <t>SINAPI</t>
   </si>
   <si>
@@ -1955,7 +1950,160 @@
     <t>CAIXA DE PASSAGEM PARA CÂMERA</t>
   </si>
   <si>
-    <t>Eletroduto de PVC rígido roscável, diâmetro 1", inclusive conexões - fonte : (LABOR - 2024)</t>
+    <t>Retirada de eletrodutos aparentes diâmetro de até Ø1"</t>
+  </si>
+  <si>
+    <t>Saída horizontal para eletroduto de 1"</t>
+  </si>
+  <si>
+    <t>Curva horizontal 90º para eletrocalha metálica, 100x100mm, galvanizada, ref. Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000057</t>
+  </si>
+  <si>
+    <t>Abraçadeira para eletroduto de 1 1/2", inclusive bucha e parafuso</t>
+  </si>
+  <si>
+    <t>3AA8.000056</t>
+  </si>
+  <si>
+    <t>Abraçadeira para eletroduto de 1", inclusive bucha e parafuso</t>
+  </si>
+  <si>
+    <t>2D31.000058</t>
+  </si>
+  <si>
+    <t>Eletrodutos de PVC rígido roscável, anti-chama, cor preta fabr. de acordo com a EB-744 da classe B, NBR-6150 da ABNT, c/ extremidades, luva, curva, bucha e arruela, diâm. 1 1/2" (50mm), incl conexões, marc TIGRE, DAISA, KANAFLEX</t>
+  </si>
+  <si>
+    <t>2D31.000057</t>
+  </si>
+  <si>
+    <t>Eletrodutos de PVC rígido roscável, anti-chama, cor preta fabr. de acordo com a EB-744 da classe B, NBR-6150 da ABNT, c/ extremidades, luva, curva, bucha e arruela, diâm. 1" (32mm), incl conexões, marc TIGRE, DAISA, KANAFLEX</t>
+  </si>
+  <si>
+    <t>3AA8.000044</t>
+  </si>
+  <si>
+    <t>150850</t>
+  </si>
+  <si>
+    <t>Saída horizontal para eletroduto de 3/4"</t>
+  </si>
+  <si>
+    <t>150851</t>
+  </si>
+  <si>
+    <t>35C5.000185</t>
+  </si>
+  <si>
+    <t>Saída horizontal para eletroduto de 1.1/2"</t>
+  </si>
+  <si>
+    <t>3AA8.000068</t>
+  </si>
+  <si>
+    <t>Acoplamento de perfilado perfurado em chapa de aço, dimensões 38 mm x 38 mm em eletrocalha metálica</t>
+  </si>
+  <si>
+    <t>3AA8.000065</t>
+  </si>
+  <si>
+    <t>2D31.000131</t>
+  </si>
+  <si>
+    <t>Curva horizontal 90º para eletrocalha metálica, 200x100mm, galvanizada, ref. Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>3428.000210</t>
+  </si>
+  <si>
+    <t>Curva horizontal 90º para eletrocalha metálica, 300x100mm, galvanizada, ref. Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000069</t>
+  </si>
+  <si>
+    <t>Divisor (septo) interno em chapa 18 perfurada, para eletrocalha metálica, H=100 mm, marca de referência Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000072</t>
+  </si>
+  <si>
+    <t>Divisor (septo) interno em chapa 18 perfurada, para eletrocalha metálica, H=100 mm, marcas de referência VALEMAM, MOPA, CEMAR ou equivalente</t>
+  </si>
+  <si>
+    <t>2D31.000130</t>
+  </si>
+  <si>
+    <t>Eletrocalha metálica perfurada galv a fogo conf norma NBR632 em chapa de ferro galv esp de 1,55 mm (chapa 16), dimensões 200 x 100 mm, c/ tampa parafusada, inclusive junções e suportes para fixação. ANDALUZ ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000064</t>
+  </si>
+  <si>
+    <t>Eletrocalha metálica perfurada galv a fogo conf norma NBR632 em chapa de ferro galv esp de 1,55 mm (chapa 16), dimensões 100 x 100 mm, c/ tampa parafusada, inclusive junções e suportes para fixação. ANDALUZ ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000071</t>
+  </si>
+  <si>
+    <t>Eletrocalha metálica perfurada galv a fogo conf norma NBR632 em chapa de ferro galv esp de 1,55 mm (chapa 16), dimensões 300 x 100 mm, c/ tampa parafusada, inclusive junções e suportes para fixação. MOPA, CEMAR, ANDALUZ</t>
+  </si>
+  <si>
+    <t>329C.000183</t>
+  </si>
+  <si>
+    <t>Redução a esquerda para eletrocalha metálica de 300x100 para 200x100mm, galvanizada</t>
+  </si>
+  <si>
+    <t>3AA8.000166</t>
+  </si>
+  <si>
+    <t>Redução esquerda para eletrocalha metálica 200x100mm para 100x100mm, galvanizada, ref. MEGA ML 25 ou equivalente</t>
+  </si>
+  <si>
+    <t>3AA8.000066</t>
+  </si>
+  <si>
+    <t>TÊ horizontal 90º para eletrocalha metálica 100x100mm, galvanizada, ref. Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>2D31.000132</t>
+  </si>
+  <si>
+    <t>TÊ horizontal 90º para eletrocalha metálica 200x100mm, galvanizada, ref. Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000067</t>
+  </si>
+  <si>
+    <t>Base em chapa de aço com quatro furos para fixação de perfilado, ref. MEGA MG 2194 ou equivalente</t>
+  </si>
+  <si>
+    <t>3AA8.000070</t>
+  </si>
+  <si>
+    <t>Curva invertida interna para perfilado perfurado em chapa de aço, dimensões 38 mm x 38 mm, ref.: Andaluz ou equiv.</t>
+  </si>
+  <si>
+    <t>3AA8.000063</t>
+  </si>
+  <si>
+    <t>Perfilado perfurado em chapa de aço, dimensões 38 mm x 38 mm inclusive suportes para fixação. ANDALUZ ou equiv.</t>
+  </si>
+  <si>
+    <t>150871</t>
+  </si>
+  <si>
+    <t>TÊ horizontal 90º para eletrocalha metálica 300x100mm, galvanizada, ref. MEGA MG 2570 ou equivalente</t>
+  </si>
+  <si>
+    <t>2D31.000159</t>
+  </si>
+  <si>
+    <t>Eletrodutos de PVC rígido roscável, anti-chama, cor preta fabr. de acordo com a EB-744 da classe B, NBR-6150 da ABNT, c/ extremidades, luva, curva, bucha e arruela, diâm. 3/4" (25mm), incl conexões, marc TIGRE, DAISA, KANAFLEX</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +2113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,6 +2173,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2079,7 +2231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2129,6 +2281,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2630,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A2:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2646,44 +2804,24 @@
     <col min="6" max="6" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3">
-        <v>20321</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3">
-        <v>20320</v>
+        <v>95784</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
@@ -2691,671 +2829,715 @@
         <v>113</v>
       </c>
       <c r="B3" s="3">
-        <v>95784</v>
+        <v>104403</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.5">
-      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="3">
+        <v>98302</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="3">
+        <v>98304</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="3">
-        <v>104403</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="3">
+        <v>97603</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>20303</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.5">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>20302</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
-        <v>10109</v>
+      <c r="A7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="3">
+        <v>97602</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>136</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <v>20408</v>
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="3">
+        <v>97604</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
-        <v>20407</v>
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="3">
+        <v>105553</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3">
-        <v>150612</v>
+        <v>105552</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3">
-        <v>150632</v>
+        <v>105550</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3">
-        <v>150633</v>
+        <v>105551</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="9">
-        <v>160872</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="13">
-        <v>28</v>
-      </c>
-      <c r="F13" s="13">
-        <v>37.42</v>
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="9">
-        <v>160872</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="12">
-        <v>44.18</v>
-      </c>
-      <c r="F14" s="12">
-        <v>58.87</v>
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
-        <v>20406</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
+      <c r="B16" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3">
-        <v>20403</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
+      <c r="B17" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
-        <v>20411</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
-        <v>20416</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
-        <v>20409</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>97</v>
+      <c r="B20" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
-        <v>20419</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>96</v>
+      <c r="B21" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7">
-        <v>20402</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="25.5">
-      <c r="A23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7">
-        <v>20410</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7">
-        <v>20414</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
-        <v>20417</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
+      <c r="B25" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3">
-        <v>20418</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
+      <c r="B26" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3">
-        <v>20404</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
+      <c r="B27" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3">
-        <v>20412</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
+      <c r="B28" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
-        <v>20405</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>154</v>
+      <c r="B29" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="12.75">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3">
-        <v>20413</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>99</v>
+      <c r="B30" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="3">
-        <v>20401</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
+      <c r="B31" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3">
-        <v>20415</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>177</v>
+      <c r="B32" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="38.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3">
-        <v>20301</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="3">
-        <v>20302</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="3">
-        <v>20303</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
-        <v>20304</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
-        <v>20305</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="B37" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="19">
-        <v>180201</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="19">
-        <v>180202</v>
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20303</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="2"/>
@@ -3364,10 +3546,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="19">
-        <v>151401</v>
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>20304</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="2"/>
@@ -3376,10 +3558,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="19">
-        <v>151402</v>
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <v>20305</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="2"/>
@@ -3387,12 +3569,8 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="19">
-        <v>151403</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="2"/>
       <c r="E42" s="5"/>
@@ -3400,380 +3578,384 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="19">
-        <v>151404</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B44" s="19">
-        <v>151405</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3">
-        <v>20319</v>
+        <v>191</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="12.75">
+        <v>192</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="3">
-        <v>160869</v>
+        <v>191</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="12.75">
+        <v>193</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="3">
-        <v>160870</v>
+        <v>191</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>117</v>
+        <v>194</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="3">
-        <v>160847</v>
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>25</v>
+        <v>195</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3">
-        <v>160848</v>
+        <v>191</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>22</v>
+        <v>196</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="8">
-        <v>160807</v>
+      <c r="A50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>106</v>
+        <v>197</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="3">
-        <v>160851</v>
+        <v>191</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>76</v>
+        <v>198</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" s="3">
-        <v>160839</v>
+        <v>191</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="F52" s="12">
-        <v>7.06</v>
+        <v>199</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="8">
-        <v>160872</v>
+      <c r="A53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>82</v>
+        <v>200</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="8">
-        <v>160873</v>
+      <c r="A54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>79</v>
+        <v>201</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="3">
-        <v>160809</v>
+        <v>191</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>73</v>
+        <v>208</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="3">
-        <v>160810</v>
+        <v>191</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>70</v>
+        <v>209</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="3">
-        <v>160811</v>
+        <v>191</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>67</v>
+        <v>210</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3">
-        <v>160812</v>
+        <v>191</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>64</v>
+        <v>211</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="3">
-        <v>160813</v>
+        <v>191</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="3">
-        <v>160814</v>
+        <v>191</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>58</v>
+        <v>219</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="3">
-        <v>160815</v>
+        <v>191</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="3">
-        <v>160816</v>
+        <v>150612</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3781,19 +3963,19 @@
         <v>18</v>
       </c>
       <c r="B63" s="3">
-        <v>160825</v>
+        <v>150632</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3801,219 +3983,163 @@
         <v>18</v>
       </c>
       <c r="B64" s="3">
-        <v>160826</v>
+        <v>150633</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="3">
-        <v>160827</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>43</v>
+      <c r="A65" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="9">
+        <v>160872</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="13">
+        <v>28</v>
+      </c>
+      <c r="F65" s="13">
+        <v>37.42</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="3">
-        <v>160828</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>40</v>
+      <c r="A66" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="9">
+        <v>160872</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="12">
+        <v>44.18</v>
+      </c>
+      <c r="F66" s="12">
+        <v>58.87</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="3">
-        <v>160834</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B67" s="19">
+        <v>180201</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="3">
-        <v>160833</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B68" s="19">
+        <v>180202</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="3">
-        <v>160831</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>158</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B69" s="19">
+        <v>151401</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="3">
-        <v>160832</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B70" s="19">
+        <v>151402</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="3">
-        <v>98302</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="19">
+        <v>151403</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B72" s="3">
-        <v>98304</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="25.5">
+      <c r="A72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" s="19">
+        <v>151404</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="3">
-        <v>160866</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="25.5">
+        <v>184</v>
+      </c>
+      <c r="B73" s="19">
+        <v>151405</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="3">
-        <v>160867</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>36</v>
+        <v>160869</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4021,19 +4147,19 @@
         <v>18</v>
       </c>
       <c r="B75" s="3">
-        <v>160829</v>
+        <v>160870</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4041,19 +4167,19 @@
         <v>18</v>
       </c>
       <c r="B76" s="3">
-        <v>160830</v>
+        <v>160847</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4061,542 +4187,560 @@
         <v>18</v>
       </c>
       <c r="B77" s="3">
-        <v>160822</v>
+        <v>160848</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="3">
-        <v>160823</v>
+      <c r="A78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="8">
+        <v>160807</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B79" s="3">
-        <v>97603</v>
+        <v>160851</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>133</v>
+        <v>78</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="B80" s="3">
-        <v>97602</v>
+        <v>160839</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>133</v>
+        <v>189</v>
+      </c>
+      <c r="E80" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="F80" s="12">
+        <v>7.06</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" s="3">
-        <v>97604</v>
+      <c r="A81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="8">
+        <v>160872</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" s="3">
-        <v>105553</v>
+      <c r="A82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="8">
+        <v>160873</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B83" s="3">
-        <v>105552</v>
+        <v>160809</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B84" s="3">
-        <v>105550</v>
+        <v>160810</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B85" s="3">
-        <v>105551</v>
+        <v>160811</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B86" s="3">
+        <v>160812</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>206</v>
+        <v>66</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B87" s="3">
+        <v>160813</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B88" s="3">
+        <v>160814</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>206</v>
+        <v>60</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B89" s="3">
+        <v>160815</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>206</v>
+        <v>57</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B90" s="3">
+        <v>160816</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>206</v>
+        <v>54</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B91" s="3">
+        <v>160825</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>206</v>
+        <v>51</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B92" s="3">
+        <v>160826</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>206</v>
+        <v>48</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B93" s="3">
+        <v>160827</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>206</v>
+        <v>45</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B94" s="3">
+        <v>160828</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>206</v>
+        <v>42</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B95" s="3">
+        <v>160834</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>206</v>
+        <v>166</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B96" s="3">
+        <v>160833</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>206</v>
+        <v>163</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B97" s="3">
+        <v>160831</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B98" s="3">
+        <v>160832</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="25.5">
       <c r="A99" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="B99" s="3">
+        <v>160866</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="25.5">
       <c r="A100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>206</v>
+        <v>18</v>
+      </c>
+      <c r="B100" s="3">
+        <v>160867</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B101" s="3">
+        <v>160829</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>206</v>
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>214</v>
+        <v>18</v>
+      </c>
+      <c r="B102" s="3">
+        <v>160830</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>215</v>
+        <v>18</v>
+      </c>
+      <c r="B103" s="3">
+        <v>160822</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="B104" s="3">
+        <v>160823</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="16" t="s">
@@ -4609,6 +4753,11 @@
       <c r="F105" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F105" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F105">
+      <sortCondition descending="1" ref="A1:A105"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4618,7 +4767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641601A-16AA-47E8-B45E-7D67F7F6F2F4}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -7295,6 +7444,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7521,7 +7679,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
@@ -7529,16 +7687,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7557,7 +7714,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7572,12 +7729,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\TABELA GTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8601B0-C986-44B6-992B-8B52B672978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E5FA2-EB68-49BD-952D-1FAAA6BFFF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gti!$A$1:$F$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gti!$A$1:$F$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="274">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -2104,6 +2104,12 @@
   </si>
   <si>
     <t>Eletrodutos de PVC rígido roscável, anti-chama, cor preta fabr. de acordo com a EB-744 da classe B, NBR-6150 da ABNT, c/ extremidades, luva, curva, bucha e arruela, diâm. 3/4" (25mm), incl conexões, marc TIGRE, DAISA, KANAFLEX</t>
+  </si>
+  <si>
+    <t>CAIXA DE TERMINAÇÃO DE FIBRA ÓPTICA</t>
+  </si>
+  <si>
+    <t>RACK OUTDOOR HERMÉTICA 6U</t>
   </si>
 </sst>
 </file>
@@ -2788,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A2:F105"/>
+  <dimension ref="A2:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="A70:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3934,48 +3940,54 @@
       <c r="C61" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="3">
-        <v>150612</v>
+        <v>191</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>150</v>
+        <v>272</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="3">
-        <v>150632</v>
+        <v>191</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>147</v>
+        <v>273</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3983,91 +3995,107 @@
         <v>18</v>
       </c>
       <c r="B64" s="3">
+        <v>150612</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="3">
+        <v>150632</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="3">
         <v>150633</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="D66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B67" s="9">
         <v>160872</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E67" s="13">
         <v>28</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F67" s="13">
         <v>37.42</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B68" s="9">
         <v>160872</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E68" s="12">
         <v>44.18</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F68" s="12">
         <v>58.87</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="19">
-        <v>180201</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="19">
-        <v>180202</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B69" s="19">
-        <v>151401</v>
+        <v>180201</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="2"/>
@@ -4079,7 +4107,7 @@
         <v>184</v>
       </c>
       <c r="B70" s="19">
-        <v>151402</v>
+        <v>180202</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="2"/>
@@ -4091,7 +4119,7 @@
         <v>184</v>
       </c>
       <c r="B71" s="19">
-        <v>151403</v>
+        <v>151401</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="2"/>
@@ -4103,7 +4131,7 @@
         <v>184</v>
       </c>
       <c r="B72" s="19">
-        <v>151404</v>
+        <v>151402</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="2"/>
@@ -4115,7 +4143,7 @@
         <v>184</v>
       </c>
       <c r="B73" s="19">
-        <v>151405</v>
+        <v>151403</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="2"/>
@@ -4124,62 +4152,46 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="3">
-        <v>160869</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>120</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B74" s="19">
+        <v>151404</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="3">
-        <v>160870</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B75" s="19">
+        <v>151405</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B76" s="3">
-        <v>160847</v>
+        <v>160869</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4187,39 +4199,39 @@
         <v>18</v>
       </c>
       <c r="B77" s="3">
-        <v>160848</v>
+        <v>160870</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="8">
-        <v>160807</v>
+      <c r="A78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="3">
+        <v>160847</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4227,119 +4239,119 @@
         <v>18</v>
       </c>
       <c r="B79" s="3">
+        <v>160848</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="8">
+        <v>160807</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="3">
         <v>160851</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E81" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F81" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B82" s="3">
         <v>160839</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E82" s="12">
         <v>5.3</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F82" s="12">
         <v>7.06</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="8">
+    <row r="83" spans="1:6">
+      <c r="A83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="8">
         <v>160872</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="D83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F83" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="8">
+    <row r="84" spans="1:6">
+      <c r="A84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="8">
         <v>160873</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="D84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="3">
-        <v>160809</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="3">
-        <v>160810</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4347,19 +4359,19 @@
         <v>18</v>
       </c>
       <c r="B85" s="3">
-        <v>160811</v>
+        <v>160809</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4367,19 +4379,19 @@
         <v>18</v>
       </c>
       <c r="B86" s="3">
-        <v>160812</v>
+        <v>160810</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4387,19 +4399,19 @@
         <v>18</v>
       </c>
       <c r="B87" s="3">
-        <v>160813</v>
+        <v>160811</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4407,19 +4419,19 @@
         <v>18</v>
       </c>
       <c r="B88" s="3">
-        <v>160814</v>
+        <v>160812</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4427,19 +4439,19 @@
         <v>18</v>
       </c>
       <c r="B89" s="3">
-        <v>160815</v>
+        <v>160813</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4447,19 +4459,19 @@
         <v>18</v>
       </c>
       <c r="B90" s="3">
-        <v>160816</v>
+        <v>160814</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4467,19 +4479,19 @@
         <v>18</v>
       </c>
       <c r="B91" s="3">
-        <v>160825</v>
+        <v>160815</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4487,19 +4499,19 @@
         <v>18</v>
       </c>
       <c r="B92" s="3">
-        <v>160826</v>
+        <v>160816</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4507,19 +4519,19 @@
         <v>18</v>
       </c>
       <c r="B93" s="3">
-        <v>160827</v>
+        <v>160825</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4527,19 +4539,19 @@
         <v>18</v>
       </c>
       <c r="B94" s="3">
-        <v>160828</v>
+        <v>160826</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4547,19 +4559,19 @@
         <v>18</v>
       </c>
       <c r="B95" s="3">
-        <v>160834</v>
+        <v>160827</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4567,19 +4579,19 @@
         <v>18</v>
       </c>
       <c r="B96" s="3">
-        <v>160833</v>
+        <v>160828</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4587,19 +4599,19 @@
         <v>18</v>
       </c>
       <c r="B97" s="3">
-        <v>160831</v>
+        <v>160834</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4607,99 +4619,99 @@
         <v>18</v>
       </c>
       <c r="B98" s="3">
+        <v>160833</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="3">
+        <v>160831</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="3">
         <v>160832</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="5" t="s">
+      <c r="D100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F100" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.5">
-      <c r="A99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="3">
+    <row r="101" spans="1:6" ht="25.5">
+      <c r="A101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="3">
         <v>160866</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" s="5" t="s">
+      <c r="D101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="25.5">
-      <c r="A100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100" s="3">
+    <row r="102" spans="1:6" ht="25.5">
+      <c r="A102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="3">
         <v>160867</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="D102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="3">
-        <v>160829</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" s="3">
-        <v>160830</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4707,19 +4719,19 @@
         <v>18</v>
       </c>
       <c r="B103" s="3">
-        <v>160822</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>143</v>
+        <v>160829</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4727,35 +4739,75 @@
         <v>18</v>
       </c>
       <c r="B104" s="3">
+        <v>160830</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="3">
+        <v>160822</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="3">
         <v>160823</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C106" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="D106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="16" t="s">
+    <row r="107" spans="1:6">
+      <c r="A107" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F105" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F105">
-      <sortCondition descending="1" ref="A1:A105"/>
+  <autoFilter ref="A1:F107" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F107">
+      <sortCondition descending="1" ref="A1:A107"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7444,6 +7496,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7452,7 +7512,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7679,15 +7739,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7695,7 +7764,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7712,21 +7781,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db_updates/TABELA REFERENCIAL GTI 01.xlsx
+++ b/db_updates/TABELA REFERENCIAL GTI 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csjunior\Documents\TABELA GTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E5FA2-EB68-49BD-952D-1FAAA6BFFF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E123961-EEE0-4257-B797-EDB92A0FAB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B342AB59-AB87-4588-B4A3-317E100562A4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gti!$A$1:$F$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gti!$A$1:$F$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="277">
   <si>
     <t xml:space="preserve">ELETRODUTOS </t>
   </si>
@@ -1959,9 +1959,6 @@
     <t>Curva horizontal 90º para eletrocalha metálica, 100x100mm, galvanizada, ref. Andaluz ou equiv.</t>
   </si>
   <si>
-    <t>3AA8.000057</t>
-  </si>
-  <si>
     <t>Abraçadeira para eletroduto de 1 1/2", inclusive bucha e parafuso</t>
   </si>
   <si>
@@ -2110,6 +2107,18 @@
   </si>
   <si>
     <t>RACK OUTDOOR HERMÉTICA 6U</t>
+  </si>
+  <si>
+    <t>ELETRODUTO 2</t>
+  </si>
+  <si>
+    <t>2D31.000059</t>
+  </si>
+  <si>
+    <t>4638.000040</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA 2</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2183,6 +2192,11 @@
       <sz val="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2237,7 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2292,6 +2306,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2794,17 +2814,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-  <dimension ref="A2:F107"/>
+  <dimension ref="A2:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="A70:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="183.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="39.140625" customWidth="1"/>
@@ -3034,11 +3054,11 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="20">
+        <v>150905</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>223</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
@@ -3055,10 +3075,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -3075,10 +3095,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -3095,10 +3115,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>230</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -3115,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>220</v>
@@ -3135,10 +3155,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>2</v>
@@ -3155,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>221</v>
@@ -3175,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
@@ -3195,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>238</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
@@ -3215,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>222</v>
@@ -3235,10 +3255,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
@@ -3255,10 +3275,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -3275,10 +3295,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -3295,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>247</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
@@ -3315,10 +3335,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>7</v>
@@ -3335,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>251</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>7</v>
@@ -3355,10 +3375,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>253</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
@@ -3375,10 +3395,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -3395,10 +3415,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
@@ -3415,10 +3435,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>259</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
@@ -3435,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
@@ -3455,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>262</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>263</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>2</v>
@@ -3475,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>264</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>265</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -3495,10 +3515,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>2</v>
@@ -3515,10 +3535,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
@@ -3529,10 +3549,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>271</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5"/>
@@ -3540,12 +3560,14 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3">
-        <v>20303</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>276</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3555,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="3">
-        <v>20304</v>
+        <v>20303</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="2"/>
@@ -3567,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3">
-        <v>20305</v>
+        <v>20304</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="2"/>
@@ -3575,8 +3597,12 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <v>20305</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="2"/>
       <c r="E42" s="5"/>
@@ -3586,25 +3612,25 @@
       <c r="A43" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>212</v>
+      <c r="B43" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+        <v>273</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -3612,33 +3638,27 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>191</v>
+        <v>214</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1">
-      <c r="A46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>204</v>
@@ -3658,7 +3678,7 @@
         <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>204</v>
@@ -3670,7 +3690,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" s="1" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -3678,7 +3698,7 @@
         <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>204</v>
@@ -3698,7 +3718,7 @@
         <v>191</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>204</v>
@@ -3718,7 +3738,7 @@
         <v>191</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>204</v>
@@ -3738,7 +3758,7 @@
         <v>191</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>204</v>
@@ -3758,7 +3778,7 @@
         <v>191</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>204</v>
@@ -3778,7 +3798,7 @@
         <v>191</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>204</v>
@@ -3798,7 +3818,7 @@
         <v>191</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>204</v>
@@ -3818,7 +3838,7 @@
         <v>191</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>204</v>
@@ -3838,7 +3858,7 @@
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>204</v>
@@ -3858,7 +3878,7 @@
         <v>191</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>204</v>
@@ -3878,7 +3898,7 @@
         <v>191</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>204</v>
@@ -3898,7 +3918,7 @@
         <v>191</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>204</v>
@@ -3918,7 +3938,7 @@
         <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>204</v>
@@ -3934,11 +3954,11 @@
       <c r="A61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>204</v>
@@ -3958,7 +3978,7 @@
         <v>191</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>204</v>
@@ -3978,7 +3998,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>204</v>
@@ -3992,22 +4012,22 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="3">
-        <v>150612</v>
+        <v>191</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>150</v>
+        <v>272</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4015,19 +4035,19 @@
         <v>18</v>
       </c>
       <c r="B65" s="3">
-        <v>150632</v>
+        <v>150612</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4035,39 +4055,39 @@
         <v>18</v>
       </c>
       <c r="B66" s="3">
+        <v>150632</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="3">
         <v>150633</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="9">
-        <v>160872</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="13">
-        <v>28</v>
-      </c>
-      <c r="F67" s="13">
-        <v>37.42</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4078,36 +4098,44 @@
         <v>160872</v>
       </c>
       <c r="C68" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="13">
+        <v>28</v>
+      </c>
+      <c r="F68" s="13">
+        <v>37.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="9">
+        <v>160872</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>44.18</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>58.87</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="19">
-        <v>180201</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B70" s="19">
-        <v>180202</v>
+        <v>180201</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="2"/>
@@ -4119,7 +4147,7 @@
         <v>184</v>
       </c>
       <c r="B71" s="19">
-        <v>151401</v>
+        <v>180202</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="2"/>
@@ -4131,7 +4159,7 @@
         <v>184</v>
       </c>
       <c r="B72" s="19">
-        <v>151402</v>
+        <v>151401</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="2"/>
@@ -4143,7 +4171,7 @@
         <v>184</v>
       </c>
       <c r="B73" s="19">
-        <v>151403</v>
+        <v>151402</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="2"/>
@@ -4155,7 +4183,7 @@
         <v>184</v>
       </c>
       <c r="B74" s="19">
-        <v>151404</v>
+        <v>151403</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="2"/>
@@ -4167,7 +4195,7 @@
         <v>184</v>
       </c>
       <c r="B75" s="19">
-        <v>151405</v>
+        <v>151404</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="2"/>
@@ -4176,42 +4204,34 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="3">
-        <v>160869</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>120</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B76" s="19">
+        <v>151405</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="3">
-        <v>160870</v>
+        <v>160869</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4219,19 +4239,19 @@
         <v>18</v>
       </c>
       <c r="B78" s="3">
-        <v>160847</v>
+        <v>160870</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4239,99 +4259,99 @@
         <v>18</v>
       </c>
       <c r="B79" s="3">
+        <v>160847</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="3">
         <v>160848</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="D80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="8">
+    <row r="81" spans="1:6">
+      <c r="A81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="8">
         <v>160807</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="D81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="3">
-        <v>160851</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="3">
+        <v>160851</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B83" s="3">
         <v>160839</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>5.3</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>7.06</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="8">
-        <v>160872</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4339,39 +4359,39 @@
         <v>18</v>
       </c>
       <c r="B84" s="8">
+        <v>160872</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="8">
         <v>160873</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="5" t="s">
+      <c r="D85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="3">
-        <v>160809</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4379,19 +4399,19 @@
         <v>18</v>
       </c>
       <c r="B86" s="3">
-        <v>160810</v>
+        <v>160809</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4399,19 +4419,19 @@
         <v>18</v>
       </c>
       <c r="B87" s="3">
-        <v>160811</v>
+        <v>160810</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4419,19 +4439,19 @@
         <v>18</v>
       </c>
       <c r="B88" s="3">
-        <v>160812</v>
+        <v>160811</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4439,19 +4459,19 @@
         <v>18</v>
       </c>
       <c r="B89" s="3">
-        <v>160813</v>
+        <v>160812</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4459,19 +4479,19 @@
         <v>18</v>
       </c>
       <c r="B90" s="3">
-        <v>160814</v>
+        <v>160813</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4479,19 +4499,19 @@
         <v>18</v>
       </c>
       <c r="B91" s="3">
-        <v>160815</v>
+        <v>160814</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4499,19 +4519,19 @@
         <v>18</v>
       </c>
       <c r="B92" s="3">
-        <v>160816</v>
+        <v>160815</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4519,19 +4539,19 @@
         <v>18</v>
       </c>
       <c r="B93" s="3">
-        <v>160825</v>
+        <v>160816</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4539,19 +4559,19 @@
         <v>18</v>
       </c>
       <c r="B94" s="3">
-        <v>160826</v>
+        <v>160825</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4559,19 +4579,19 @@
         <v>18</v>
       </c>
       <c r="B95" s="3">
-        <v>160827</v>
+        <v>160826</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4579,19 +4599,19 @@
         <v>18</v>
       </c>
       <c r="B96" s="3">
-        <v>160828</v>
+        <v>160827</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4599,19 +4619,19 @@
         <v>18</v>
       </c>
       <c r="B97" s="3">
-        <v>160834</v>
+        <v>160828</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4619,19 +4639,19 @@
         <v>18</v>
       </c>
       <c r="B98" s="3">
-        <v>160833</v>
+        <v>160834</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4639,19 +4659,19 @@
         <v>18</v>
       </c>
       <c r="B99" s="3">
-        <v>160831</v>
+        <v>160833</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4659,39 +4679,39 @@
         <v>18</v>
       </c>
       <c r="B100" s="3">
+        <v>160831</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="3">
         <v>160832</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="D101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="25.5">
-      <c r="A101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="3">
-        <v>160866</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="25.5">
@@ -4699,39 +4719,39 @@
         <v>18</v>
       </c>
       <c r="B102" s="3">
+        <v>160866</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="25.5">
+      <c r="A103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="3">
         <v>160867</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="5" t="s">
+      <c r="D103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="3">
-        <v>160829</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4739,19 +4759,19 @@
         <v>18</v>
       </c>
       <c r="B104" s="3">
-        <v>160830</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>30</v>
+        <v>160829</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4759,19 +4779,19 @@
         <v>18</v>
       </c>
       <c r="B105" s="3">
-        <v>160822</v>
+        <v>160830</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4779,35 +4799,55 @@
         <v>18</v>
       </c>
       <c r="B106" s="3">
+        <v>160822</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="3">
         <v>160823</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C107" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="D107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="16" t="s">
+    <row r="108" spans="1:6">
+      <c r="A108" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F107" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F107">
-      <sortCondition descending="1" ref="A1:A107"/>
+  <autoFilter ref="A1:F108" xr:uid="{4496DF37-853F-4F99-9368-3D75E3115958}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F108">
+      <sortCondition descending="1" ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7496,23 +7536,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033EEAB3C55E6B245B0485CBB9EAF5AAF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1209ea68121d0676ce616169cfff7909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c407d157-dc1b-452d-8e32-fa12cc106a55" xmlns:ns4="76847fb8-0a43-4b94-bd74-9898486c1b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6668b3feb1510deea7dc166534bf5b7d" ns3:_="" ns4:_="">
     <xsd:import namespace="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
@@ -7739,32 +7762,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c407d157-dc1b-452d-8e32-fa12cc106a55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1231FC-487B-4554-8B0C-0C86E8797B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7781,4 +7796,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE000D3-B153-437F-833B-B6ABC895B888}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE752A47-FD37-4E87-A4C6-C77C48480B08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c407d157-dc1b-452d-8e32-fa12cc106a55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="76847fb8-0a43-4b94-bd74-9898486c1b7b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>